--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_10D1F316DD74DA0E62355476585DCE3A87465CB5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD9417E3-C755-4997-86FF-8BE4EE3472F7}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_3CBDE0725F6F9A0E62355476585DCE3A8745E4A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C4700A-530F-492B-9198-9217B6A8DB35}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="232">
   <si>
     <t>RAMJA</t>
   </si>
@@ -34,48 +47,90 @@
     <t>cleanAIIMS</t>
   </si>
   <si>
-    <t>COLI</t>
-  </si>
-  <si>
-    <t>PNEUMO</t>
-  </si>
-  <si>
-    <t>AERUGI</t>
-  </si>
-  <si>
-    <t>BAUMAN</t>
-  </si>
-  <si>
-    <t>MIRABIL</t>
-  </si>
-  <si>
-    <t>FAECALI</t>
-  </si>
-  <si>
-    <t>AUREUS</t>
-  </si>
-  <si>
-    <t>SAPROPHY</t>
-  </si>
-  <si>
-    <t>STERI</t>
-  </si>
-  <si>
-    <t>CONTA</t>
+    <t>Escherichia coli_R</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae_R</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa_R</t>
+  </si>
+  <si>
+    <t>Acinetobacter baumannii_R</t>
+  </si>
+  <si>
+    <t>Proteus mirabilis_R</t>
+  </si>
+  <si>
+    <t>Enterococcus faecalis_R</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus_R</t>
+  </si>
+  <si>
+    <t>Staphylococcus saprophyticus_R</t>
+  </si>
+  <si>
+    <t>Sterile_R</t>
+  </si>
+  <si>
+    <t>Contamination_R</t>
+  </si>
+  <si>
+    <t>NAN_R</t>
+  </si>
+  <si>
+    <t>Escherichia coli_A</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae_A</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa_A</t>
+  </si>
+  <si>
+    <t>Acinetobacter baumannii_A</t>
+  </si>
+  <si>
+    <t>Proteus mirabilis_A</t>
+  </si>
+  <si>
+    <t>Enterococcus faecalis_A</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus_A</t>
+  </si>
+  <si>
+    <t>Staphylococcus saprophyticus_A</t>
+  </si>
+  <si>
+    <t>Sterile_A</t>
+  </si>
+  <si>
+    <t>Contamination_A</t>
+  </si>
+  <si>
+    <t>NAN_A</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Enterococcus faecalis</t>
+  </si>
+  <si>
+    <t>ENTEROCOCCUS FAECALIS</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Contamination</t>
   </si>
   <si>
     <t>NAN</t>
   </si>
   <si>
-    <t>Enterococcus faecalis</t>
-  </si>
-  <si>
-    <t>ENTEROCOCCUS FAECALIS</t>
-  </si>
-  <si>
-    <t>Contamination</t>
-  </si>
-  <si>
     <t>CONTAMINATION</t>
   </si>
   <si>
@@ -113,6 +168,9 @@
   </si>
   <si>
     <t>E COLI &amp; PSEUDOMNAS</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>E. Coli, Pseudomonas, P.mirabilis, E.Faecalis, S. aureus</t>
@@ -1033,19 +1091,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P147"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="S157" sqref="S157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="41.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,22 +1145,58 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1141,19 +1231,55 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1188,22 +1314,58 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1238,22 +1400,58 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1288,16 +1486,52 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1332,22 +1566,58 @@
       <c r="P6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1382,22 +1652,58 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1432,16 +1738,52 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1476,22 +1818,58 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1526,22 +1904,58 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1576,22 +1990,58 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1626,22 +2076,58 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1676,22 +2162,58 @@
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1726,22 +2248,58 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1776,23 +2334,59 @@
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -1826,22 +2420,58 @@
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1876,23 +2506,59 @@
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
@@ -1926,22 +2592,58 @@
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1976,22 +2678,58 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2026,22 +2764,58 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2076,19 +2850,55 @@
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2123,22 +2933,58 @@
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2173,19 +3019,55 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2220,22 +3102,58 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2270,19 +3188,55 @@
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2317,22 +3271,58 @@
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2367,22 +3357,58 @@
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2417,22 +3443,58 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2467,22 +3529,58 @@
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2517,22 +3615,58 @@
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2567,19 +3701,55 @@
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2614,22 +3784,58 @@
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2664,22 +3870,58 @@
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2714,22 +3956,58 @@
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2764,22 +4042,58 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2814,19 +4128,55 @@
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2861,19 +4211,55 @@
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2908,22 +4294,58 @@
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2958,23 +4380,59 @@
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
       <c r="F40">
         <v>0</v>
       </c>
@@ -3008,22 +4466,58 @@
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3058,22 +4552,58 @@
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3108,22 +4638,58 @@
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3158,22 +4724,58 @@
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3208,19 +4810,55 @@
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3255,19 +4893,55 @@
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3302,22 +4976,58 @@
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3352,19 +5062,55 @@
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3399,19 +5145,55 @@
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3446,22 +5228,58 @@
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
         <v>36</v>
       </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3496,22 +5314,58 @@
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3546,22 +5400,58 @@
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3596,22 +5486,58 @@
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3646,22 +5572,58 @@
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3696,19 +5658,55 @@
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3743,22 +5741,58 @@
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3793,22 +5827,58 @@
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3843,22 +5913,58 @@
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3893,22 +5999,58 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3943,22 +6085,58 @@
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3993,22 +6171,58 @@
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4043,22 +6257,58 @@
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4093,22 +6343,58 @@
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -4143,22 +6429,58 @@
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4193,22 +6515,58 @@
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4243,22 +6601,58 @@
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4293,22 +6687,58 @@
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -4343,19 +6773,55 @@
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4390,22 +6856,58 @@
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -4440,22 +6942,58 @@
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4490,19 +7028,55 @@
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4537,22 +7111,58 @@
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4587,22 +7197,58 @@
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4637,22 +7283,58 @@
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4687,22 +7369,58 @@
       <c r="P74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4737,22 +7455,58 @@
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -4787,22 +7541,58 @@
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -4837,22 +7627,58 @@
       <c r="P77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4887,22 +7713,58 @@
       <c r="P78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4937,22 +7799,58 @@
       <c r="P79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4987,22 +7885,58 @@
       <c r="P80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -5037,22 +7971,58 @@
       <c r="P81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -5087,22 +8057,58 @@
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -5137,22 +8143,58 @@
       <c r="P83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5187,22 +8229,58 @@
       <c r="P84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -5237,22 +8315,58 @@
       <c r="P85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5287,22 +8401,58 @@
       <c r="P86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5337,22 +8487,58 @@
       <c r="P87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -5387,22 +8573,58 @@
       <c r="P88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5437,22 +8659,58 @@
       <c r="P89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -5487,22 +8745,58 @@
       <c r="P90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -5537,22 +8831,58 @@
       <c r="P91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D92" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5587,22 +8917,58 @@
       <c r="P92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5637,22 +9003,58 @@
       <c r="P93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>1</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -5687,22 +9089,58 @@
       <c r="P94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E95" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5737,22 +9175,58 @@
       <c r="P95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -5787,22 +9261,58 @@
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>1</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E97" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -5837,22 +9347,58 @@
       <c r="P97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5887,22 +9433,58 @@
       <c r="P98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5937,22 +9519,58 @@
       <c r="P99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -5987,22 +9605,58 @@
       <c r="P100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -6037,22 +9691,58 @@
       <c r="P101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E102" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -6087,22 +9777,58 @@
       <c r="P102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -6137,22 +9863,58 @@
       <c r="P103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -6187,22 +9949,58 @@
       <c r="P104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E105" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -6237,22 +10035,58 @@
       <c r="P105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -6287,22 +10121,58 @@
       <c r="P106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D107" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -6337,22 +10207,58 @@
       <c r="P107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D108" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -6387,22 +10293,58 @@
       <c r="P108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>1</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D109" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E109" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6437,22 +10379,58 @@
       <c r="P109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -6487,22 +10465,58 @@
       <c r="P110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D111" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E111" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -6537,22 +10551,58 @@
       <c r="P111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -6587,22 +10637,58 @@
       <c r="P112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E113" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -6637,22 +10723,58 @@
       <c r="P113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -6687,19 +10809,55 @@
       <c r="P114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>1</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -6734,19 +10892,55 @@
       <c r="P115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>1</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -6781,22 +10975,58 @@
       <c r="P116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>1</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -6831,22 +11061,58 @@
       <c r="P117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>1</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -6881,22 +11147,58 @@
       <c r="P118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -6931,22 +11233,58 @@
       <c r="P119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>1</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -6981,19 +11319,55 @@
       <c r="P120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>1</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -7028,22 +11402,58 @@
       <c r="P121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>1</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -7078,22 +11488,58 @@
       <c r="P122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>1</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7128,22 +11574,58 @@
       <c r="P123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>1</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D124" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E124" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -7178,22 +11660,58 @@
       <c r="P124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D125" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -7228,22 +11746,58 @@
       <c r="P125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>1</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -7278,19 +11832,55 @@
       <c r="P126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>1</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D127" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -7325,22 +11915,58 @@
       <c r="P127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>1</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D128" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -7375,22 +12001,58 @@
       <c r="P128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>1</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D129" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -7425,22 +12087,58 @@
       <c r="P129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>1</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -7475,22 +12173,58 @@
       <c r="P130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>1</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -7525,22 +12259,58 @@
       <c r="P131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>1</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D132" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -7575,22 +12345,58 @@
       <c r="P132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>1</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D133" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -7625,22 +12431,58 @@
       <c r="P133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>1</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D134" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -7675,22 +12517,58 @@
       <c r="P134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>1</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D135" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -7725,22 +12603,58 @@
       <c r="P135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>1</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D136" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -7775,19 +12689,55 @@
       <c r="P136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D137" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -7822,19 +12772,55 @@
       <c r="P137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>1</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D138" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -7869,19 +12855,55 @@
       <c r="P138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>1</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D139" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E139" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -7916,19 +12938,55 @@
       <c r="P139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>1</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D140" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -7963,22 +13021,58 @@
       <c r="P140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>1</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D141" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -8013,22 +13107,58 @@
       <c r="P141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>1</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D142" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -8063,19 +13193,55 @@
       <c r="P142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>1</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D143" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -8110,22 +13276,58 @@
       <c r="P143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>1</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D144" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -8160,19 +13362,55 @@
       <c r="P144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>1</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D145" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E145" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -8207,19 +13445,55 @@
       <c r="P145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>1</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D146" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -8254,19 +13528,55 @@
       <c r="P146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>1</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -8300,6 +13610,42 @@
       </c>
       <c r="P147">
         <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>1</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
